--- a/work_day_log/Taylor.xlsx
+++ b/work_day_log/Taylor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,58 @@
   </si>
   <si>
     <t>添加新的数据模型 关联产品模板 和产品价格表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:30-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联模型展示 按钮动作添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-10:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加按妞动作 测试运行效果  增加新功能 是否完成选框 根据完成状态创建价格表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:26-11:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:36-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联模型升级 要求完全同步 不出现任何偏差 修改价格表的过滤条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加同步按钮 同步时比对 价格表和当前的取值 添加按钮 比对当前的数值是否一致 不一致 更新价格表对应的列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:09-15:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一个新的数据模型 应用于门店存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善门店存款数据模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:03:00-16:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店模型数据BUG消除 1.消除多条记录添加时 计算字段不对的问题  2.消除时间比对为字符串的BUG  3.添加字段删除关联</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -303,61 +355,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -678,438 +833,489 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="14">
+      <c r="A2" s="26">
         <v>42275</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9"/>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9"/>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9"/>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15">
+      <c r="A6" s="27">
         <v>42285</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="13">
         <v>0.6</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10"/>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10"/>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="16">
+      <c r="A10" s="28">
         <v>42286</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9"/>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9"/>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9"/>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="15">
+      <c r="A14" s="27">
         <v>42287</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="13">
         <v>0.7</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="11"/>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11"/>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="11"/>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="13">
         <v>0.4</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="16">
+      <c r="A19" s="28">
         <v>42289</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="17">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="17">
-        <v>1</v>
-      </c>
-      <c r="E21" s="18" t="s">
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="15">
+      <c r="A22" s="29">
         <v>42290</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="13">
         <v>0.3</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11"/>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11"/>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="13">
         <v>0.3</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="23">
+        <v>42291</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="19">
+        <v>1</v>
+      </c>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="24"/>
+      <c r="B29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="24"/>
+      <c r="B30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="19">
+        <v>1</v>
+      </c>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="19">
+        <v>1</v>
+      </c>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="31">
+        <v>42292</v>
+      </c>
+      <c r="B32" s="32">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A22:A25"/>
+  <mergeCells count="7">
+    <mergeCell ref="A27:A31"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work_day_log/Taylor.xlsx
+++ b/work_day_log/Taylor.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="9月" sheetId="1" r:id="rId1"/>
+    <sheet name="10月" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,7 +300,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>门店模型数据BUG消除 1.消除多条记录添加时 计算字段不对的问题  2.消除时间比对为字符串的BUG  3.添加字段删除关联</t>
+    <t xml:space="preserve">门店模型数据BUG消除 1.消除多条记录添加时 计算字段不对的问题  2.消除时间比对为字符串的BUG  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30:00-9：51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写关联对象删除方法 一旦删除 删除所有匹配的价格表列产品 产品模板对应的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:52-10:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站项目综合测试 备份周哥数据库  还原本地数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:56:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403 一般是执行某个动作当前用户并没有相应的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限bug修复 最终结算时 修改销售订单的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">404是找不到这个页面 500方法错误 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00:00-15:08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改 类别显示 过去显示方式：查找当前显示的产品 相关类别  现在按照价格表查询查询相应的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:08:00-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会 讨论网站下一步运作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站session 对象不能存oe中的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成类别显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:30:00-22:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-10:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给韦翠讲解电子商务网站注意事项 产品价格表关联事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改销售订单完成后 城市的显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:54:00-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">增加库存字段 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-15:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:01-23:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试判断 订单数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测新门店 403 bug  还原周哥数据库 查找出 原因因为用户没有查看预测数量的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:01:00-10:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:36-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bug 修复  进行js判断选择数量是否大于库存数量查找js的一些案例  http://www.w3school.com.cn/jquery/jquery_selectors.asp  了解下jquery选择器 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403权限问题 404相关网页无法找到 500服务器内部错误  服务器返回 200表示请求成功 3xx表示重定向 4xx表示发送的请求有误  5xx表示服务器处理时错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:01:00-15:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和客户见面了解项目下一步需求 根据需求写出下一步计划伪码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:00:00-6:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将之前做的 价格表产品关联 由价格表变为价格表版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00:00-22:15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,14 +556,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -484,6 +614,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -493,27 +673,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -818,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -833,489 +997,676 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="26">
+      <c r="A2" s="34">
         <v>42275</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10"/>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10"/>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10"/>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10"/>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="27">
+      <c r="A6" s="35">
         <v>42285</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14"/>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>0.6</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14"/>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14"/>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="28">
+      <c r="A10" s="36">
         <v>42286</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10"/>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10"/>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10"/>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="27">
+      <c r="A14" s="35">
         <v>42287</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>0.7</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="E15" s="16"/>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16"/>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="16"/>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <v>0.4</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="28">
+      <c r="A19" s="36">
         <v>42289</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="29">
+      <c r="A22" s="32">
         <v>42290</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="11">
         <v>0.3</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="13">
-        <v>1</v>
-      </c>
-      <c r="E23" s="16"/>
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="30"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="13">
-        <v>1</v>
-      </c>
-      <c r="E24" s="16"/>
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="11">
         <v>0.3</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4"/>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="23">
+      <c r="A27" s="41">
         <v>42291</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="19">
-        <v>1</v>
-      </c>
-      <c r="E27" s="20"/>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="24"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="17">
         <v>0.8</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="24"/>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="17">
         <v>0.6</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="24"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="19">
-        <v>1</v>
-      </c>
-      <c r="E30" s="20"/>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="25"/>
-      <c r="B31" s="21" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="19">
-        <v>1</v>
-      </c>
-      <c r="E31" s="20"/>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="31">
+      <c r="A32" s="37">
         <v>42292</v>
       </c>
-      <c r="B32" s="32">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="D32" s="23">
+        <v>1</v>
+      </c>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="38"/>
+      <c r="B33" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="23">
+        <v>1</v>
+      </c>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="38"/>
+      <c r="B34" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="23">
+        <v>1</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="38"/>
+      <c r="B35" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="38"/>
+      <c r="B36" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="38"/>
+      <c r="B37" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="39"/>
+      <c r="B38" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="25">
+        <v>1</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="36">
+        <v>42293</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="17">
+        <v>1</v>
+      </c>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="36"/>
+      <c r="B40" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="40">
+        <v>42294</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="25">
+        <v>1</v>
+      </c>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="40"/>
+      <c r="B42" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="36">
+        <v>42296</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="17">
+        <v>1</v>
+      </c>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="36"/>
+      <c r="B44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="36"/>
+      <c r="B45" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="36"/>
+      <c r="B46" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A47" s="36"/>
+      <c r="B47" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="31">
+        <v>1</v>
+      </c>
+      <c r="E47" s="18"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="44"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A39:A40"/>
     <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work_day_log/Taylor.xlsx
+++ b/work_day_log/Taylor.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="10月" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="153">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,6 +437,195 @@
   </si>
   <si>
     <t>21:00:00-22:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:52:00-9:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户中的库位根据公司 过滤一下  价格表关联讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格表版本和价格表多对多的关联：完成数据交互方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:05:00-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11：00-13:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">价格表版本和价格表多对多的关联：创建页面显示模型-  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现问题 copy有些字段无法赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:54:00-16:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:10:00-5:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js弹出错误提示测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格表版本中增加‘购买倍数’字段，并限定只能购买此倍数的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:40-10:04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1：购买倍数校验：在页面中增加倍数显示          2购买倍数校验：加入购物车后，按照倍数，修改购买的数量
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h+3h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老院案例添加到网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站图片经常上传不上去 手动改格式多次尝试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:09:00-11:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:43-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:09-14:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看一下diajo框架的知识 完善养老院代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看一下diajo框架的知识 完善养老院代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和韦翠马玲对项目进行深入的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug:1.价格表倍数摆放位置不正确 2.没有加上是否选择为空时的判断 3.多个价格表版本报错4.付款的时候 不正确 出现了 系统自带的payNow 4.可用数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款的时候 不正确 出现了 系统自带的payNow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:40:00-9:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格表倍数摆放位置不正确 修改同步关联产品对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">之前项目 出现bug 重新修改业务 根据产品模板查询出相应的产品模板 id 然后根据类别查询出相应的 模板id  再根据产品查询出相应的产品模版   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:16:00-16:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:14-17:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看为什么有空价格表版本是无法创建价格表的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL语句中存在约束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -552,16 +741,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -574,9 +786,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -586,9 +795,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="7" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -602,9 +808,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -622,7 +825,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -636,7 +838,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,9 +924,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -664,20 +936,10 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -982,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -996,669 +1258,1000 @@
     <col min="5" max="5" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="34">
+      <c r="F1" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="60">
         <v>42275</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="6" t="s">
+      <c r="D2" s="30">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="60"/>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
-      <c r="B4" s="6" t="s">
+      <c r="D3" s="30">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="60"/>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="5" t="s">
+      <c r="D4" s="30">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="60"/>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35">
+      <c r="D5" s="30">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="61">
         <v>42285</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
-      <c r="B7" s="9" t="s">
+      <c r="D6" s="31">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="61"/>
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="31">
         <v>0.6</v>
       </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="10" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="61"/>
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
-      <c r="B9" s="10" t="s">
+      <c r="D8" s="31">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="61"/>
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="36">
+      <c r="D9" s="31">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="57">
         <v>42286</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="36"/>
-      <c r="B11" s="6" t="s">
+      <c r="D10" s="30">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="57"/>
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="36"/>
-      <c r="B12" s="6" t="s">
+      <c r="D11" s="30">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="57"/>
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="36"/>
-      <c r="B13" s="6" t="s">
+      <c r="D12" s="30">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="57"/>
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="30">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="35">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="61">
         <v>42287</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="31">
         <v>0.7</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="9" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="61"/>
+      <c r="B15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="9" t="s">
+      <c r="D15" s="31">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="61"/>
+      <c r="B16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="11">
-        <v>1</v>
-      </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="10" t="s">
+      <c r="D16" s="31">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="61"/>
+      <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="11">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
-      <c r="B18" s="9" t="s">
+      <c r="D17" s="31">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="61"/>
+      <c r="B18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="31">
         <v>0.4</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="36">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="57">
         <v>42289</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="30">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="36"/>
-      <c r="B20" s="5" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="57"/>
+      <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="30">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="36"/>
-      <c r="B21" s="6" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="57"/>
+      <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="30">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="32">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="58">
         <v>42290</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="31">
         <v>0.3</v>
       </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="33"/>
-      <c r="B23" s="10" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="59"/>
+      <c r="B23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="11">
-        <v>1</v>
-      </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="33"/>
-      <c r="B24" s="9" t="s">
+      <c r="D23" s="31">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="59"/>
+      <c r="B24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="11">
-        <v>1</v>
-      </c>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
-      <c r="B25" s="10" t="s">
+      <c r="D24" s="31">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="59"/>
+      <c r="B25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="31">
         <v>0.3</v>
       </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
-      <c r="B26" s="20" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="59"/>
+      <c r="B26" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="41">
+      <c r="E26" s="18"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="54">
         <v>42291</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="17">
-        <v>1</v>
-      </c>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="42"/>
-      <c r="B28" s="16" t="s">
+      <c r="D27" s="32">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="55"/>
+      <c r="B28" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="32">
         <v>0.8</v>
       </c>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="42"/>
-      <c r="B29" s="6" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A29" s="55"/>
+      <c r="B29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="32">
         <v>0.6</v>
       </c>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="42"/>
-      <c r="B30" s="6" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="55"/>
+      <c r="B30" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="17">
-        <v>1</v>
-      </c>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
-      <c r="B31" s="19" t="s">
+      <c r="D30" s="32">
+        <v>1</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="56"/>
+      <c r="B31" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="17">
-        <v>1</v>
-      </c>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="37">
+      <c r="D31" s="32">
+        <v>1</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="62">
         <v>42292</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="23">
-        <v>1</v>
-      </c>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="38"/>
-      <c r="B33" s="20" t="s">
+      <c r="D32" s="33">
+        <v>1</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="63"/>
+      <c r="B33" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="23">
-        <v>1</v>
-      </c>
-      <c r="E33" s="22"/>
-    </row>
-    <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A34" s="38"/>
-      <c r="B34" s="21" t="s">
+      <c r="D33" s="33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="63"/>
+      <c r="B34" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="23">
-        <v>1</v>
-      </c>
-      <c r="E34" s="22" t="s">
+      <c r="D34" s="33">
+        <v>1</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="38"/>
-      <c r="B35" s="21" t="s">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="63"/>
+      <c r="B35" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20" t="s">
+      <c r="D35" s="34"/>
+      <c r="E35" s="16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="38"/>
-      <c r="B36" s="21" t="s">
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="63"/>
+      <c r="B36" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="33">
         <v>0.6</v>
       </c>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="38"/>
-      <c r="B37" s="20" t="s">
+      <c r="E36" s="18"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="63"/>
+      <c r="B37" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="39"/>
-      <c r="B38" s="24" t="s">
+      <c r="D37" s="34"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="64"/>
+      <c r="B38" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="25">
-        <v>1</v>
-      </c>
-      <c r="E38" s="22" t="s">
+      <c r="D38" s="35">
+        <v>1</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="36">
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="57">
         <v>42293</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="17">
-        <v>1</v>
-      </c>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="36"/>
-      <c r="B40" s="19" t="s">
+      <c r="D39" s="32">
+        <v>1</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="57"/>
+      <c r="B40" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="32">
         <v>0.4</v>
       </c>
-      <c r="E40" s="16"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="40">
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="65">
         <v>42294</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="25">
-        <v>1</v>
-      </c>
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="40"/>
-      <c r="B42" s="22" t="s">
+      <c r="D41" s="35">
+        <v>1</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="65"/>
+      <c r="B42" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="35">
         <v>0.4</v>
       </c>
-      <c r="E42" s="22"/>
-    </row>
-    <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="36">
+      <c r="E42" s="18"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="57">
         <v>42296</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="17">
-        <v>1</v>
-      </c>
-      <c r="E43" s="16"/>
-    </row>
-    <row r="44" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="36"/>
-      <c r="B44" s="6" t="s">
+      <c r="D43" s="32">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="57"/>
+      <c r="B44" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="30">
         <v>0.3</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A45" s="36"/>
-      <c r="B45" s="19" t="s">
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="57"/>
+      <c r="B45" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A46" s="36"/>
-      <c r="B46" s="19" t="s">
+      <c r="D45" s="36"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="57"/>
+      <c r="B46" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="32">
         <v>0.4</v>
       </c>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="36"/>
-      <c r="B47" s="29" t="s">
+      <c r="E46" s="13"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A47" s="57"/>
+      <c r="B47" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="31">
-        <v>1</v>
-      </c>
-      <c r="E47" s="18"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="44"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
+      <c r="D47" s="37">
+        <v>1</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" s="57">
+        <v>42297</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="37">
+        <v>1</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A49" s="57"/>
+      <c r="B49" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="37">
+        <v>1</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A50" s="57"/>
+      <c r="B50" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="37">
+        <v>1</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="57"/>
+      <c r="B51" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A52" s="54"/>
+      <c r="B52" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="A53" s="61">
+        <v>42298</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="19">
+        <v>1</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A54" s="61"/>
+      <c r="B54" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="19">
+        <v>1</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="61"/>
+      <c r="B55" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="61"/>
+      <c r="B56" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="41">
+        <v>1</v>
+      </c>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+    </row>
+    <row r="57" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="62"/>
+      <c r="B57" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="42"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="52">
+        <f ca="1">A58:G602015/10/22</f>
+        <v>0</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="46">
+        <v>1</v>
+      </c>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G58" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="H58" s="49"/>
+    </row>
+    <row r="59" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="A59" s="67"/>
+      <c r="B59" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="51">
+        <v>1</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H59" s="49"/>
+    </row>
+    <row r="60" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="53"/>
+      <c r="B60" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="66">
+        <v>1</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A39:A40"/>
+  <mergeCells count="14">
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A43:A47"/>
     <mergeCell ref="A22:A26"/>
@@ -1667,6 +2260,12 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/work_day_log/Taylor.xlsx
+++ b/work_day_log/Taylor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,55 +577,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>付款的时候 不正确 出现了 系统自带的payNow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:40:00-9:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格表倍数摆放位置不正确 修改同步关联产品对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">之前项目 出现bug 重新修改业务 根据产品模板查询出相应的产品模板 id 然后根据类别查询出相应的 模板id  再根据产品查询出相应的产品模版   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:16:00-16:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:14-17:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看为什么有空价格表版本是无法创建价格表的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL语句中存在约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bug:1.价格表倍数摆放位置不正确 2.没有加上是否选择为空时的判断 3.多个价格表版本报错4.付款的时候 不正确 出现了 系统自带的payNow 4.可用数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>付款的时候 不正确 出现了 系统自带的payNow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:40:00-9:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格表倍数摆放位置不正确 修改同步关联产品对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">之前项目 出现bug 重新修改业务 根据产品模板查询出相应的产品模板 id 然后根据类别查询出相应的 模板id  再根据产品查询出相应的产品模版   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:16:00-16:13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:14-17:21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看为什么有空价格表版本是无法创建价格表的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL语句中存在约束</t>
+    <t>添加库存 读取销售订单 中查看出库库位 查看系统怎么得到相关出库库位的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找到pick.Move中默认得到目标库位的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:13-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:03:00-10:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和远见北邮接口的的使用者了解工作中所需要的项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-14:23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改网站中库存的显示 1.按照库位小时 2.如果库存为0那么就不显示这个商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找销售订单工作流中仓库订单的床啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:21:00-16:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在需求单上找到仓库和库位所对应的默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在门店中添加库位 库位根据仓库 改变而默认获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:35:00-17：12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店显示 这个库位中的产品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:13:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30-9:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会 讨论下月 计划 以及季度计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:48-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改网站中库存的显示 1.按照库位小时 2.如果库存为0那么就不显示这个商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改网站中库存的显示 1.按照库位小时 2.如果库存为0那么就不显示这个商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试查找相应的bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改114的网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:13-17:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:08-22:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复BUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:12-15:12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -894,36 +998,58 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -934,10 +1060,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1244,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1282,7 +1404,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="60">
+      <c r="A2" s="65">
         <v>42275</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1299,7 +1421,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="60"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1314,7 +1436,7 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="60"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1329,7 +1451,7 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="60"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1466,7 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="61">
+      <c r="A6" s="66">
         <v>42285</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1361,7 +1483,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="61"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
@@ -1376,7 +1498,7 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="61"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1391,7 +1513,7 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="61"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1406,7 +1528,7 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="57">
+      <c r="A10" s="62">
         <v>42286</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1423,7 +1545,7 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
@@ -1438,7 +1560,7 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1453,7 +1575,7 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
@@ -1470,7 +1592,7 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="61">
+      <c r="A14" s="66">
         <v>42287</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1489,7 +1611,7 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="61"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="7" t="s">
         <v>34</v>
       </c>
@@ -1504,7 +1626,7 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="61"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="7" t="s">
         <v>36</v>
       </c>
@@ -1519,7 +1641,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
@@ -1534,7 +1656,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="61"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="7" t="s">
         <v>40</v>
       </c>
@@ -1551,7 +1673,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="57">
+      <c r="A19" s="62">
         <v>42289</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1570,7 +1692,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
@@ -1587,7 +1709,7 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="57"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -1604,7 +1726,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="58">
+      <c r="A22" s="63">
         <v>42290</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1621,7 +1743,7 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="59"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="8" t="s">
         <v>53</v>
       </c>
@@ -1636,7 +1758,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="59"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="7" t="s">
         <v>55</v>
       </c>
@@ -1651,7 +1773,7 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="59"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="8" t="s">
         <v>56</v>
       </c>
@@ -1666,7 +1788,7 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="59"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="16" t="s">
         <v>59</v>
       </c>
@@ -1681,7 +1803,7 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="54">
+      <c r="A27" s="59">
         <v>42291</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -1698,7 +1820,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="55"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="13" t="s">
         <v>63</v>
       </c>
@@ -1713,7 +1835,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="55"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="5" t="s">
         <v>64</v>
       </c>
@@ -1728,7 +1850,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="55"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="5" t="s">
         <v>67</v>
       </c>
@@ -1743,7 +1865,7 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="56"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="15" t="s">
         <v>70</v>
       </c>
@@ -1758,7 +1880,7 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="62">
+      <c r="A32" s="70">
         <v>42292</v>
       </c>
       <c r="B32" s="17" t="s">
@@ -1775,7 +1897,7 @@
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="63"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="16" t="s">
         <v>74</v>
       </c>
@@ -1790,7 +1912,7 @@
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A34" s="63"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="17" t="s">
         <v>76</v>
       </c>
@@ -1807,7 +1929,7 @@
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="63"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="17" t="s">
         <v>80</v>
       </c>
@@ -1822,7 +1944,7 @@
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="63"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="17" t="s">
         <v>82</v>
       </c>
@@ -1837,7 +1959,7 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="63"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="16" t="s">
         <v>83</v>
       </c>
@@ -1850,7 +1972,7 @@
       <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="64"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="20" t="s">
         <v>87</v>
       </c>
@@ -1867,7 +1989,7 @@
       <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="57">
+      <c r="A39" s="62">
         <v>42293</v>
       </c>
       <c r="B39" s="21" t="s">
@@ -1884,7 +2006,7 @@
       <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="57"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="15" t="s">
         <v>91</v>
       </c>
@@ -1899,7 +2021,7 @@
       <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="65">
+      <c r="A41" s="73">
         <v>42294</v>
       </c>
       <c r="B41" s="18" t="s">
@@ -1916,7 +2038,7 @@
       <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="18" t="s">
         <v>94</v>
       </c>
@@ -1931,7 +2053,7 @@
       <c r="G42" s="14"/>
     </row>
     <row r="43" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="57">
+      <c r="A43" s="62">
         <v>42296</v>
       </c>
       <c r="B43" s="15" t="s">
@@ -1948,7 +2070,7 @@
       <c r="G43" s="14"/>
     </row>
     <row r="44" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="57"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="5" t="s">
         <v>98</v>
       </c>
@@ -1965,7 +2087,7 @@
       <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A45" s="57"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="15" t="s">
         <v>101</v>
       </c>
@@ -1978,7 +2100,7 @@
       <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A46" s="57"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="15" t="s">
         <v>103</v>
       </c>
@@ -1993,7 +2115,7 @@
       <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="57"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="24" t="s">
         <v>105</v>
       </c>
@@ -2008,7 +2130,7 @@
       <c r="G47" s="14"/>
     </row>
     <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A48" s="57">
+      <c r="A48" s="62">
         <v>42297</v>
       </c>
       <c r="B48" s="24" t="s">
@@ -2025,7 +2147,7 @@
       <c r="G48" s="14"/>
     </row>
     <row r="49" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A49" s="57"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="24" t="s">
         <v>112</v>
       </c>
@@ -2044,7 +2166,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A50" s="57"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="24" t="s">
         <v>114</v>
       </c>
@@ -2065,7 +2187,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="57"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="24" t="s">
         <v>119</v>
       </c>
@@ -2084,7 +2206,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="54"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="27" t="s">
         <v>121</v>
       </c>
@@ -2101,7 +2223,7 @@
       <c r="G52" s="14"/>
     </row>
     <row r="53" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A53" s="61">
+      <c r="A53" s="66">
         <v>42298</v>
       </c>
       <c r="B53" s="17" t="s">
@@ -2122,7 +2244,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A54" s="61"/>
+      <c r="A54" s="66"/>
       <c r="B54" s="17" t="s">
         <v>132</v>
       </c>
@@ -2143,7 +2265,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="61"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="20" t="s">
         <v>134</v>
       </c>
@@ -2158,7 +2280,7 @@
       <c r="G55" s="18"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="61"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="18" t="s">
         <v>135</v>
       </c>
@@ -2173,7 +2295,7 @@
       <c r="G56" s="18"/>
     </row>
     <row r="57" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="62"/>
+      <c r="A57" s="70"/>
       <c r="B57" s="43" t="s">
         <v>138</v>
       </c>
@@ -2182,90 +2304,282 @@
       </c>
       <c r="D57" s="44"/>
       <c r="E57" s="44" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F57" s="44"/>
       <c r="G57" s="44"/>
       <c r="H57" s="42"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="52">
-        <f ca="1">A58:G602015/10/22</f>
-        <v>0</v>
+      <c r="A58" s="67">
+        <v>42299</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D58" s="46">
         <v>1</v>
       </c>
       <c r="E58" s="47"/>
       <c r="F58" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G58" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="H58" s="49"/>
+    </row>
+    <row r="59" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="A59" s="68"/>
+      <c r="B59" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="H58" s="49"/>
-    </row>
-    <row r="59" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A59" s="67"/>
-      <c r="B59" s="50" t="s">
+      <c r="D59" s="51">
+        <v>1</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D59" s="51">
-        <v>1</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="13" t="s">
+      <c r="G59" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="H59" s="49"/>
+    </row>
+    <row r="60" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="69"/>
+      <c r="B60" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="H59" s="49"/>
-    </row>
-    <row r="60" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" s="53"/>
-      <c r="B60" s="14" t="s">
+      <c r="C60" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="D60" s="52">
+        <v>1</v>
+      </c>
+      <c r="E60" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="D60" s="66">
-        <v>1</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>152</v>
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
+    <row r="61" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A61" s="53">
+        <v>42300</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="19">
+        <v>1</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+    </row>
+    <row r="62" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A62" s="54"/>
+      <c r="B62" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="41">
+        <v>1</v>
+      </c>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+    </row>
+    <row r="63" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A63" s="54"/>
+      <c r="B63" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+    </row>
+    <row r="64" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A64" s="55"/>
+      <c r="B64" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="56">
+        <v>42302</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="52">
+        <v>1</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="57"/>
+      <c r="B66" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="52">
+        <v>1</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="58"/>
+      <c r="B67" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="53">
+        <v>42303</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="41">
+        <v>1</v>
+      </c>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+    </row>
+    <row r="69" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A69" s="54"/>
+      <c r="B69" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" s="41">
+        <v>1</v>
+      </c>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="54"/>
+      <c r="B70" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D70" s="41">
+        <v>1</v>
+      </c>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="54"/>
+      <c r="B71" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D71" s="41">
+        <v>1</v>
+      </c>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="55"/>
+      <c r="B72" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="41">
+        <v>1</v>
+      </c>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A22:A26"/>
+  <mergeCells count="17">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A58:A60"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
